--- a/CoM_template_filling/data/output/SOIs_DEA23.xlsx
+++ b/CoM_template_filling/data/output/SOIs_DEA23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://samfzj-my.sharepoint.com/personal/s_patil_fz-juelich_de/Documents/Documents/code/LOCALISED-Datasharing-API-Client/CoM_template_filling/data/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_71BD10BDD350D55207392B11595ED87656CEF2BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96698632-FE34-4AB9-9795-3C116B9F72DA}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0C25B2BFD300507AC33A3011595ED87656CE73CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26B53E57-55D2-44A0-9DE3-64B52C240A65}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-10780" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3053,18 +3053,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="T221" sqref="T221"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3191,7 +3186,7 @@
         <v>31</v>
       </c>
       <c r="H5">
-        <v>3.8999999999999999E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3217,7 +3212,7 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>3.8999999999999999E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3243,7 +3238,7 @@
         <v>31</v>
       </c>
       <c r="H7">
-        <v>3.8999999999999999E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -3269,7 +3264,7 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>3.8999999999999999E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3295,7 +3290,7 @@
         <v>31</v>
       </c>
       <c r="H9">
-        <v>3.8999999999999999E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3321,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>3.8999999999999999E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3347,7 +3342,7 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>3.8999999999999999E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3373,7 +3368,7 @@
         <v>31</v>
       </c>
       <c r="H12">
-        <v>3.8999999999999999E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3399,7 +3394,7 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>3.8999999999999999E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -3477,7 +3472,7 @@
         <v>67</v>
       </c>
       <c r="H16">
-        <v>8.9770876425912167</v>
+        <v>9975</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -3503,7 +3498,7 @@
         <v>67</v>
       </c>
       <c r="H17">
-        <v>162.41117256878351</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3529,7 +3524,7 @@
         <v>67</v>
       </c>
       <c r="H18">
-        <v>8.4677813824030626</v>
+        <v>9409</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -3555,7 +3550,7 @@
         <v>67</v>
       </c>
       <c r="H19">
-        <v>10.33785225870963</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -4023,7 +4018,7 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>4.6054764641730772</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -6935,7 +6930,7 @@
         <v>14</v>
       </c>
       <c r="H149">
-        <v>3.8317564181920012E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -8001,7 +7996,7 @@
         <v>694</v>
       </c>
       <c r="H190">
-        <v>64.001396686993075</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -8703,7 +8698,7 @@
         <v>522</v>
       </c>
       <c r="H217">
-        <v>10.54027765496507</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -8729,7 +8724,7 @@
         <v>522</v>
       </c>
       <c r="H218">
-        <v>17.481928110354591</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
